--- a/data/location/d2.xlsx
+++ b/data/location/d2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bigdata\tourbigdata\data\location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0834532-B284-4260-8DF7-96A2620535AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36C9B2-FF58-4645-B638-8A282E78B9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId3"/>
+    <pivotCache cacheId="36" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">COUNTY	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +211,10 @@
   </si>
   <si>
     <t>Jung-gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNTY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134387,7 +134387,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDB58587-3B68-43F6-B6BC-3ADF73843157}" name="피벗 테이블16" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDB58587-3B68-43F6-B6BC-3ADF73843157}" name="피벗 테이블16" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -135045,9 +135045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -135056,15 +135054,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>2986</v>
@@ -135104,7 +135102,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1763</v>
@@ -135112,7 +135110,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1656</v>
@@ -135120,7 +135118,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>1534</v>
@@ -135128,7 +135126,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>911</v>
@@ -135136,7 +135134,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>483</v>
@@ -135144,7 +135142,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>1541</v>
@@ -135152,7 +135150,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>1193</v>
@@ -135160,7 +135158,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>2431</v>
@@ -135168,7 +135166,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>2105</v>
@@ -135176,7 +135174,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>2237</v>
@@ -135184,7 +135182,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>1383</v>
@@ -135192,7 +135190,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>1381</v>
@@ -135200,7 +135198,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>2857</v>
@@ -135208,7 +135206,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>1240</v>
@@ -135216,7 +135214,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>2722</v>
@@ -135224,7 +135222,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>2931</v>
@@ -135232,7 +135230,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>1025</v>
@@ -135240,7 +135238,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>3010</v>
@@ -135248,7 +135246,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>3162</v>
@@ -135256,7 +135254,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>789</v>
